--- a/medicine/Enfance/Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages/Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages.xlsx
+++ b/medicine/Enfance/Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages/Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Convention_sur_le_consentement_au_mariage,_l%27%C3%A2ge_minimum_du_mariage_et_l%27enregistrement_des_mariages</t>
+          <t>Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Convention sur le consentement au mariage, l'âge minimum du mariage et l'enregistrement des mariages est un traité reconnu par l'Organisation des Nations unies sur les critères du mariage. Préparé par la Commission de la condition de la femme, il devient ouvert aux signatures et aux ratifications le 7 novembre 1962 par la résolution 1763 A (XVII) de l'Assemblée générale des Nations unies. Il entre en vigueur le 9 décembre 1964, conformément à l'article 6. La Convention, signée par 16 pays, est reconnue par 55 parties[1]. La Convention se fonde sur l'article 16 de la Déclaration universelle des droits de l'homme[1] ; elle réaffirme la nécessité de « libre et plein consentement » dans le mariage et demande aux parties de légiférer sur un âge minimum du mariage et de s'assurer que les mariages sont enregistrés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Convention sur le consentement au mariage, l'âge minimum du mariage et l'enregistrement des mariages est un traité reconnu par l'Organisation des Nations unies sur les critères du mariage. Préparé par la Commission de la condition de la femme, il devient ouvert aux signatures et aux ratifications le 7 novembre 1962 par la résolution 1763 A (XVII) de l'Assemblée générale des Nations unies. Il entre en vigueur le 9 décembre 1964, conformément à l'article 6. La Convention, signée par 16 pays, est reconnue par 55 parties. La Convention se fonde sur l'article 16 de la Déclaration universelle des droits de l'homme ; elle réaffirme la nécessité de « libre et plein consentement » dans le mariage et demande aux parties de légiférer sur un âge minimum du mariage et de s'assurer que les mariages sont enregistrés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Convention_sur_le_consentement_au_mariage,_l%27%C3%A2ge_minimum_du_mariage_et_l%27enregistrement_des_mariages</t>
+          <t>Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet initial de cette convention est esquissé dans la Convention supplémentaire sur l'abolition de l'esclavage adoptée par une conférence de plénipotentiaires en 1956[3]. Dans cette convention de 1956 figurent des articles qui déclarent que les mariages précoces et les mariages forcés représentent une forme d'esclavage. L'article 1 de cette convention cite plusieurs types de mariages en les qualifiant d'esclavage. La convention englobe les institutions ou pratiques acceptant un mariage forcé en guise de paiement, le transfert d'une femme depuis sa belle-famille à un tiers, le transfert d'une femme à un tiers après la mort de son époux[3].
-En 1957, la Commission de la condition de la femme demande au Conseil économique et social des Nations unies de s'atteler à son projet de convention[4]. La Commission propose les premières versions, les commentaires et les rectifications lors de sa douzième session en 1958. La Commission de la condition de la femme demande au Secrétaire général de préparer une convention et une recommandation sur le sujet[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet initial de cette convention est esquissé dans la Convention supplémentaire sur l'abolition de l'esclavage adoptée par une conférence de plénipotentiaires en 1956. Dans cette convention de 1956 figurent des articles qui déclarent que les mariages précoces et les mariages forcés représentent une forme d'esclavage. L'article 1 de cette convention cite plusieurs types de mariages en les qualifiant d'esclavage. La convention englobe les institutions ou pratiques acceptant un mariage forcé en guise de paiement, le transfert d'une femme depuis sa belle-famille à un tiers, le transfert d'une femme à un tiers après la mort de son époux.
+En 1957, la Commission de la condition de la femme demande au Conseil économique et social des Nations unies de s'atteler à son projet de convention. La Commission propose les premières versions, les commentaires et les rectifications lors de sa douzième session en 1958. La Commission de la condition de la femme demande au Secrétaire général de préparer une convention et une recommandation sur le sujet.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Convention_sur_le_consentement_au_mariage,_l%27%C3%A2ge_minimum_du_mariage_et_l%27enregistrement_des_mariages</t>
+          <t>Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Résumé des articles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Article 1 : les mariages doivent être contractés avec le « libre et plein consentement » des deux parties ;
 Article 2 : les États parties dans la Convention doivent adopter des lois qui réglementent l'âge minimum pour le mariage ;
@@ -554,7 +570,7 @@
 Article 7 : processus pour dénoncer la Convention ;
 Article 8 : tout litige au sujet de l'interprétation ou de l'application doit être porté auprès de la Cour internationale de justice ;
 Article 9 : le Secrétaire général des Nations unies notifiera les parties concernées concernant les signatures, instruments et dates d'entrée en vigueur de la Convention et les prévenir en cas de dénonciation ou d'abrogation.
-Article 10 : la Convention est publiée en plusieurs langues et confiée aux archives des Nations unies. Le Secrétaire général transmettra un exemplaire à toutes les parties concernées[5].</t>
+Article 10 : la Convention est publiée en plusieurs langues et confiée aux archives des Nations unies. Le Secrétaire général transmettra un exemplaire à toutes les parties concernées.</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Convention_sur_le_consentement_au_mariage,_l%27%C3%A2ge_minimum_du_mariage_et_l%27enregistrement_des_mariages</t>
+          <t>Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Effets sur le mariage des enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré le déploiement de cette convention, les mariages d'enfants et les mariages forcés perdurent à l'échelle mondiale. En 2020, plus de 12 millions de jeunes filles ont conclu un mariage sous la contrainte[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré le déploiement de cette convention, les mariages d'enfants et les mariages forcés perdurent à l'échelle mondiale. En 2020, plus de 12 millions de jeunes filles ont conclu un mariage sous la contrainte.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Convention_sur_le_consentement_au_mariage,_l%27%C3%A2ge_minimum_du_mariage_et_l%27enregistrement_des_mariages</t>
+          <t>Convention_sur_le_consentement_au_mariage,_l'âge_minimum_du_mariage_et_l'enregistrement_des_mariages</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
